--- a/Datas/Defines/__tables__.xlsx
+++ b/Datas/Defines/__tables__.xlsx
@@ -5,29 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\DemoExcels\Datas\Defines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SunHeSLGConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD152471-6573-4E2A-B52E-DEE9C7CE3AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A64CB87-D4E0-4968-B296-A765BBEF44D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="4245" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="李翔 - 个人视图" guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="420" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="王树湃 - 个人视图" guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="相钰 - 个人视图" guid="{FD691EE8-6D2E-49AD-93D9-3F01820A4257}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="施逸诗 - 个人视图" guid="{C05F3069-328B-4A50-B65B-B559784493CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
     <customWorkbookView name="Claymore - Personal View" guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
-    <customWorkbookView name="施逸诗 - 个人视图" guid="{C05F3069-328B-4A50-B65B-B559784493CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="相钰 - 个人视图" guid="{FD691EE8-6D2E-49AD-93D9-3F01820A4257}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="王树湃 - 个人视图" guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="李翔 - 个人视图" guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="420" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -114,58 +114,77 @@
   </si>
   <si>
     <t>为空的话自动取value_type中第一个字段,多主键联合索引为key1+key2,多主键独立索引为"key1,key2"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>mode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>one</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>取值one|map|list，为空自动为map</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ConstData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SLG.TbConst</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SLG.TbLanguage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LanguageData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Language.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ConstValue@TbConst.xlsx</t>
+  </si>
+  <si>
+    <t>SLG.Character</t>
+  </si>
+  <si>
+    <t>CharacterData</t>
+  </si>
+  <si>
+    <t>TbCharacter.xlsx</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,27 +254,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -538,7 +560,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -696,8 +718,21 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1">
-      <c r="E6"/>
-      <c r="F6"/>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="G6"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1">
@@ -899,13 +934,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" topLeftCell="A16">
+      <selection activeCell="E42" sqref="E42"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{C05F3069-328B-4A50-B65B-B559784493CA}" topLeftCell="A16">
-      <selection activeCell="G39" sqref="G39"/>
+    <customSheetView guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}">
+      <selection activeCell="G10" sqref="G10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -914,18 +949,18 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}">
-      <selection activeCell="G10" sqref="G10"/>
+    <customSheetView guid="{C05F3069-328B-4A50-B65B-B559784493CA}" topLeftCell="A16">
+      <selection activeCell="G39" sqref="G39"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
-    <customSheetView guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" topLeftCell="A16">
-      <selection activeCell="E42" sqref="E42"/>
+    <customSheetView guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>
   </customSheetViews>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E20" r:id="rId6" display="手配置@s手.xlsx" xr:uid="{851E0DC9-509B-4925-9BD1-465F3E1A55E4}"/>
     <hyperlink ref="E36" r:id="rId7" display="金币兑换@j金币兑换表.xlsx" xr:uid="{2B74DD5D-7AE5-442C-BA3C-41B321DDBDA5}"/>

--- a/Datas/Defines/__tables__.xlsx
+++ b/Datas/Defines/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SunHeSLGConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A64CB87-D4E0-4968-B296-A765BBEF44D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3E1FB5-6DD0-4E27-9E2A-EF2041601BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="4245" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,11 +23,24 @@
     <customWorkbookView name="施逸诗 - 个人视图" guid="{C05F3069-328B-4A50-B65B-B559784493CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
     <customWorkbookView name="Claymore - Personal View" guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
   </customWorkbookViews>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -166,6 +179,15 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>SLG.Item</t>
+  </si>
+  <si>
+    <t>ItemData</t>
+  </si>
+  <si>
+    <t>arts@Items.xlsx,sword@items.xlsx,item@items.xlsx,lance@items.xlsx,axe@items.xlsx,bow@items.xlsx,dagger@items.xlsx,tome@items.xlsx,staff@items.xlsx,special@items.xlsx</t>
   </si>
 </sst>
 </file>
@@ -560,7 +582,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -736,8 +758,21 @@
       <c r="G6"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1">
-      <c r="D7"/>
-      <c r="E7"/>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1">
       <c r="D8"/>
@@ -967,8 +1002,9 @@
     <hyperlink ref="E37" r:id="rId8" display="规则@m麻将规则.xlsx" xr:uid="{A43961F5-5F04-456C-ADD0-E08180BBFD4E}"/>
     <hyperlink ref="E5" r:id="rId9" display="Language@" xr:uid="{40C75D90-311C-412D-A26C-F16779DEAB91}"/>
     <hyperlink ref="E4" r:id="rId10" xr:uid="{EE9DE100-4B25-4107-94B4-DB9CA82630BF}"/>
+    <hyperlink ref="E7" r:id="rId11" xr:uid="{5DDCF3C7-FDDB-4DDA-AC8E-5D9CBCF69C47}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/Datas/Defines/__tables__.xlsx
+++ b/Datas/Defines/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SunHeSLGConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3E1FB5-6DD0-4E27-9E2A-EF2041601BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B251D0-2B18-45E3-8A7E-0381DA4B9C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,11 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Claymore - Personal View" guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
+    <customWorkbookView name="施逸诗 - 个人视图" guid="{C05F3069-328B-4A50-B65B-B559784493CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="相钰 - 个人视图" guid="{FD691EE8-6D2E-49AD-93D9-3F01820A4257}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="王树湃 - 个人视图" guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="李翔 - 个人视图" guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="420" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="王树湃 - 个人视图" guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="相钰 - 个人视图" guid="{FD691EE8-6D2E-49AD-93D9-3F01820A4257}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="施逸诗 - 个人视图" guid="{C05F3069-328B-4A50-B65B-B559784493CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="Claymore - Personal View" guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -127,43 +127,43 @@
   </si>
   <si>
     <t>为空的话自动取value_type中第一个字段,多主键联合索引为key1+key2,多主键独立索引为"key1,key2"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>mode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>one</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>取值one|map|list，为空自动为map</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ConstData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SLG.TbConst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SLG.TbLanguage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LanguageData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Language.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ConstValue@TbConst.xlsx</t>
@@ -188,18 +188,34 @@
   </si>
   <si>
     <t>arts@Items.xlsx,sword@items.xlsx,item@items.xlsx,lance@items.xlsx,axe@items.xlsx,bow@items.xlsx,dagger@items.xlsx,tome@items.xlsx,staff@items.xlsx,special@items.xlsx</t>
+  </si>
+  <si>
+    <t>SLG.Class</t>
+  </si>
+  <si>
+    <t>ClassData</t>
+  </si>
+  <si>
+    <t>Class.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,27 +292,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -582,7 +601,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -775,8 +794,21 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1">
-      <c r="D8"/>
-      <c r="E8"/>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1">
       <c r="D9"/>
@@ -969,13 +1001,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" topLeftCell="A16">
-      <selection activeCell="E42" sqref="E42"/>
+    <customSheetView guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}">
-      <selection activeCell="G10" sqref="G10"/>
+    <customSheetView guid="{C05F3069-328B-4A50-B65B-B559784493CA}" topLeftCell="A16">
+      <selection activeCell="G39" sqref="G39"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -984,18 +1016,18 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{C05F3069-328B-4A50-B65B-B559784493CA}" topLeftCell="A16">
-      <selection activeCell="G39" sqref="G39"/>
+    <customSheetView guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}">
+      <selection activeCell="G10" sqref="G10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
-    <customSheetView guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" topLeftCell="A16">
+      <selection activeCell="E42" sqref="E42"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>
   </customSheetViews>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E20" r:id="rId6" display="手配置@s手.xlsx" xr:uid="{851E0DC9-509B-4925-9BD1-465F3E1A55E4}"/>
     <hyperlink ref="E36" r:id="rId7" display="金币兑换@j金币兑换表.xlsx" xr:uid="{2B74DD5D-7AE5-442C-BA3C-41B321DDBDA5}"/>

--- a/Datas/Defines/__tables__.xlsx
+++ b/Datas/Defines/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SunHeSLGConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B251D0-2B18-45E3-8A7E-0381DA4B9C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F01D534-BB59-4A5F-A55C-C7B94723D711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,11 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="李翔 - 个人视图" guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="420" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="王树湃 - 个人视图" guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="相钰 - 个人视图" guid="{FD691EE8-6D2E-49AD-93D9-3F01820A4257}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="施逸诗 - 个人视图" guid="{C05F3069-328B-4A50-B65B-B559784493CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
     <customWorkbookView name="Claymore - Personal View" guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
-    <customWorkbookView name="施逸诗 - 个人视图" guid="{C05F3069-328B-4A50-B65B-B559784493CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="相钰 - 个人视图" guid="{FD691EE8-6D2E-49AD-93D9-3F01820A4257}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="王树湃 - 个人视图" guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="李翔 - 个人视图" guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="420" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>##var</t>
   </si>
@@ -197,6 +197,15 @@
   </si>
   <si>
     <t>Class.xlsx</t>
+  </si>
+  <si>
+    <t>SLG.TileEffect</t>
+  </si>
+  <si>
+    <t>TileEffectData</t>
+  </si>
+  <si>
+    <t>TileEffect.xlsx</t>
   </si>
 </sst>
 </file>
@@ -601,7 +610,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -771,7 +780,7 @@
       <c r="E6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G6"/>
@@ -811,8 +820,21 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1">
-      <c r="D9"/>
-      <c r="E9"/>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1">
       <c r="D10"/>
@@ -1001,13 +1023,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" topLeftCell="A16">
+      <selection activeCell="E42" sqref="E42"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{C05F3069-328B-4A50-B65B-B559784493CA}" topLeftCell="A16">
-      <selection activeCell="G39" sqref="G39"/>
+    <customSheetView guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}">
+      <selection activeCell="G10" sqref="G10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -1016,13 +1038,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}">
-      <selection activeCell="G10" sqref="G10"/>
+    <customSheetView guid="{C05F3069-328B-4A50-B65B-B559784493CA}" topLeftCell="A16">
+      <selection activeCell="G39" sqref="G39"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
-    <customSheetView guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" topLeftCell="A16">
-      <selection activeCell="E42" sqref="E42"/>
+    <customSheetView guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>

--- a/Datas/Defines/__tables__.xlsx
+++ b/Datas/Defines/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SunHeSLGConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F01D534-BB59-4A5F-A55C-C7B94723D711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7936827-528F-4188-8A42-E71F5270DB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="675" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>##var</t>
   </si>
@@ -206,6 +206,15 @@
   </si>
   <si>
     <t>TileEffect.xlsx</t>
+  </si>
+  <si>
+    <t>SLG.Skill</t>
+  </si>
+  <si>
+    <t>SkillData</t>
+  </si>
+  <si>
+    <t>Skills.xlsx</t>
   </si>
 </sst>
 </file>
@@ -610,7 +619,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -837,8 +846,21 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1">
-      <c r="D10"/>
-      <c r="E10"/>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1">
       <c r="D11"/>

--- a/Datas/Defines/__tables__.xlsx
+++ b/Datas/Defines/__tables__.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SunHeSLGConfigs\Datas\Defines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7936827-528F-4188-8A42-E71F5270DB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3B0B4A-B599-4B7C-9757-C54255F03EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="675" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="8100" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Claymore - Personal View" guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
+    <customWorkbookView name="施逸诗 - 个人视图" guid="{C05F3069-328B-4A50-B65B-B559784493CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="相钰 - 个人视图" guid="{FD691EE8-6D2E-49AD-93D9-3F01820A4257}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="王树湃 - 个人视图" guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="李翔 - 个人视图" guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="420" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="王树湃 - 个人视图" guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="相钰 - 个人视图" guid="{FD691EE8-6D2E-49AD-93D9-3F01820A4257}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="施逸诗 - 个人视图" guid="{C05F3069-328B-4A50-B65B-B559784493CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="Claymore - Personal View" guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>##var</t>
   </si>
@@ -215,6 +215,27 @@
   </si>
   <si>
     <t>Skills.xlsx</t>
+  </si>
+  <si>
+    <t>MONO.TbChapter</t>
+  </si>
+  <si>
+    <t>Chapter</t>
+  </si>
+  <si>
+    <t>Chapters@TbChapter.xlsx</t>
+  </si>
+  <si>
+    <t>MONO.TbBuilding</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Buildings@TbChapter.xlsx</t>
+  </si>
+  <si>
+    <t>ID+Level</t>
   </si>
 </sst>
 </file>
@@ -619,7 +640,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -628,7 +649,7 @@
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="48.28515625" customWidth="1"/>
+    <col min="5" max="5" width="81.5703125" customWidth="1"/>
     <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="37.140625" customWidth="1"/>
     <col min="8" max="8" width="57.42578125" bestFit="1" customWidth="1"/>
@@ -863,12 +884,38 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1">
-      <c r="D11"/>
-      <c r="E11"/>
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1">
-      <c r="D12"/>
-      <c r="E12"/>
+      <c r="B12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1">
       <c r="D13"/>
@@ -1045,13 +1092,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" topLeftCell="A16">
-      <selection activeCell="E42" sqref="E42"/>
+    <customSheetView guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}">
-      <selection activeCell="G10" sqref="G10"/>
+    <customSheetView guid="{C05F3069-328B-4A50-B65B-B559784493CA}" topLeftCell="A16">
+      <selection activeCell="G39" sqref="G39"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -1060,13 +1107,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{C05F3069-328B-4A50-B65B-B559784493CA}" topLeftCell="A16">
-      <selection activeCell="G39" sqref="G39"/>
+    <customSheetView guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}">
+      <selection activeCell="G10" sqref="G10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
-    <customSheetView guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" topLeftCell="A16">
+      <selection activeCell="E42" sqref="E42"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>
@@ -1079,8 +1126,10 @@
     <hyperlink ref="E5" r:id="rId9" display="Language@" xr:uid="{40C75D90-311C-412D-A26C-F16779DEAB91}"/>
     <hyperlink ref="E4" r:id="rId10" xr:uid="{EE9DE100-4B25-4107-94B4-DB9CA82630BF}"/>
     <hyperlink ref="E7" r:id="rId11" xr:uid="{5DDCF3C7-FDDB-4DDA-AC8E-5D9CBCF69C47}"/>
+    <hyperlink ref="E11" r:id="rId12" xr:uid="{983B365B-BAB9-4F6F-9D1D-DDB6C3725F0A}"/>
+    <hyperlink ref="E12" r:id="rId13" xr:uid="{6E6559AC-E9E1-4100-9B7C-3ECFE680C3B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/Datas/Defines/__tables__.xlsx
+++ b/Datas/Defines/__tables__.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\Defines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeMonoConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3B0B4A-B599-4B7C-9757-C54255F03EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405FA576-4708-4892-9E4E-4EE55577C4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="8100" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,11 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="李翔 - 个人视图" guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="420" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="王树湃 - 个人视图" guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="相钰 - 个人视图" guid="{FD691EE8-6D2E-49AD-93D9-3F01820A4257}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="施逸诗 - 个人视图" guid="{C05F3069-328B-4A50-B65B-B559784493CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
     <customWorkbookView name="Claymore - Personal View" guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
-    <customWorkbookView name="施逸诗 - 个人视图" guid="{C05F3069-328B-4A50-B65B-B559784493CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="相钰 - 个人视图" guid="{FD691EE8-6D2E-49AD-93D9-3F01820A4257}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="王树湃 - 个人视图" guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="李翔 - 个人视图" guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="420" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>##var</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>value_type</t>
-  </si>
-  <si>
-    <t>define_from_file</t>
   </si>
   <si>
     <t>input</t>
@@ -226,16 +223,7 @@
     <t>Chapters@TbChapter.xlsx</t>
   </si>
   <si>
-    <t>MONO.TbBuilding</t>
-  </si>
-  <si>
-    <t>Building</t>
-  </si>
-  <si>
-    <t>Buildings@TbChapter.xlsx</t>
-  </si>
-  <si>
-    <t>ID+Level</t>
+    <t>read_schema_from_file</t>
   </si>
 </sst>
 </file>
@@ -640,7 +628,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -648,8 +636,8 @@
     <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="81.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="37.140625" customWidth="1"/>
     <col min="8" max="8" width="57.42578125" bestFit="1" customWidth="1"/>
@@ -671,251 +659,238 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1">
       <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1">
       <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="D6" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="G6"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1">
       <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D7" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1">
       <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D8" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1">
       <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D9" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1">
       <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D10" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1">
       <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D11" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1">
-      <c r="B12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="D12"/>
+      <c r="E12"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1">
       <c r="D13"/>
@@ -1092,13 +1067,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" topLeftCell="A16">
+      <selection activeCell="E42" sqref="E42"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{C05F3069-328B-4A50-B65B-B559784493CA}" topLeftCell="A16">
-      <selection activeCell="G39" sqref="G39"/>
+    <customSheetView guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}">
+      <selection activeCell="G10" sqref="G10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -1107,13 +1082,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}">
-      <selection activeCell="G10" sqref="G10"/>
+    <customSheetView guid="{C05F3069-328B-4A50-B65B-B559784493CA}" topLeftCell="A16">
+      <selection activeCell="G39" sqref="G39"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
-    <customSheetView guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" topLeftCell="A16">
-      <selection activeCell="E42" sqref="E42"/>
+    <customSheetView guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>
@@ -1127,9 +1102,8 @@
     <hyperlink ref="E4" r:id="rId10" xr:uid="{EE9DE100-4B25-4107-94B4-DB9CA82630BF}"/>
     <hyperlink ref="E7" r:id="rId11" xr:uid="{5DDCF3C7-FDDB-4DDA-AC8E-5D9CBCF69C47}"/>
     <hyperlink ref="E11" r:id="rId12" xr:uid="{983B365B-BAB9-4F6F-9D1D-DDB6C3725F0A}"/>
-    <hyperlink ref="E12" r:id="rId13" xr:uid="{6E6559AC-E9E1-4100-9B7C-3ECFE680C3B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/Datas/Defines/__tables__.xlsx
+++ b/Datas/Defines/__tables__.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeMonoConfigs\Datas\Defines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405FA576-4708-4892-9E4E-4EE55577C4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88188EEB-CD87-440E-B008-1F8096574DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="8100" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>##var</t>
   </si>
@@ -224,6 +224,18 @@
   </si>
   <si>
     <t>read_schema_from_file</t>
+  </si>
+  <si>
+    <t>MONO.TbBuilding</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Buildings@TbChapter.xlsx</t>
+  </si>
+  <si>
+    <t>ID+Level</t>
   </si>
 </sst>
 </file>
@@ -628,7 +640,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -638,7 +650,7 @@
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" customWidth="1"/>
     <col min="5" max="5" width="46.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="37.140625" customWidth="1"/>
     <col min="8" max="8" width="57.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -889,8 +901,21 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1">
-      <c r="D12"/>
-      <c r="E12"/>
+      <c r="B12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1">
       <c r="D13"/>
@@ -1102,8 +1127,9 @@
     <hyperlink ref="E4" r:id="rId10" xr:uid="{EE9DE100-4B25-4107-94B4-DB9CA82630BF}"/>
     <hyperlink ref="E7" r:id="rId11" xr:uid="{5DDCF3C7-FDDB-4DDA-AC8E-5D9CBCF69C47}"/>
     <hyperlink ref="E11" r:id="rId12" xr:uid="{983B365B-BAB9-4F6F-9D1D-DDB6C3725F0A}"/>
+    <hyperlink ref="E12" r:id="rId13" xr:uid="{D9CD1F1D-565A-4DD7-9843-A46CF71D3FCC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/Datas/Defines/__tables__.xlsx
+++ b/Datas/Defines/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88188EEB-CD87-440E-B008-1F8096574DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC3AA42-C866-442A-8C02-A4088CB4D669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>##var</t>
   </si>
@@ -236,6 +236,24 @@
   </si>
   <si>
     <t>ID+Level</t>
+  </si>
+  <si>
+    <t>MapConfig@MonopolyMap.xlsx</t>
+  </si>
+  <si>
+    <t>MapConfig</t>
+  </si>
+  <si>
+    <t>MONO.TbMapConfig</t>
+  </si>
+  <si>
+    <t>MONO.TbMapEvent</t>
+  </si>
+  <si>
+    <t>MapEvent</t>
+  </si>
+  <si>
+    <t>MapEvent@MonopolyMap.xlsx</t>
   </si>
 </sst>
 </file>
@@ -640,7 +658,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -918,13 +936,38 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1">
-      <c r="D13"/>
-      <c r="E13"/>
+      <c r="B13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="B14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1">
@@ -1128,8 +1171,10 @@
     <hyperlink ref="E7" r:id="rId11" xr:uid="{5DDCF3C7-FDDB-4DDA-AC8E-5D9CBCF69C47}"/>
     <hyperlink ref="E11" r:id="rId12" xr:uid="{983B365B-BAB9-4F6F-9D1D-DDB6C3725F0A}"/>
     <hyperlink ref="E12" r:id="rId13" xr:uid="{D9CD1F1D-565A-4DD7-9843-A46CF71D3FCC}"/>
+    <hyperlink ref="E13" r:id="rId14" xr:uid="{8BA61C71-B652-48CA-881D-DBE119145F8C}"/>
+    <hyperlink ref="E14" r:id="rId15" xr:uid="{3A7E5245-68F0-44C6-B4BA-D65D5604E1FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/Datas/Defines/__tables__.xlsx
+++ b/Datas/Defines/__tables__.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC3AA42-C866-442A-8C02-A4088CB4D669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F78835-896B-459B-89D2-783C21033002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Claymore - Personal View" guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
+    <customWorkbookView name="施逸诗 - 个人视图" guid="{C05F3069-328B-4A50-B65B-B559784493CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="相钰 - 个人视图" guid="{FD691EE8-6D2E-49AD-93D9-3F01820A4257}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="王树湃 - 个人视图" guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="李翔 - 个人视图" guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="420" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="王树湃 - 个人视图" guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="相钰 - 个人视图" guid="{FD691EE8-6D2E-49AD-93D9-3F01820A4257}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="施逸诗 - 个人视图" guid="{C05F3069-328B-4A50-B65B-B559784493CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="Claymore - Personal View" guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>##var</t>
   </si>
@@ -214,46 +214,7 @@
     <t>Skills.xlsx</t>
   </si>
   <si>
-    <t>MONO.TbChapter</t>
-  </si>
-  <si>
-    <t>Chapter</t>
-  </si>
-  <si>
-    <t>Chapters@TbChapter.xlsx</t>
-  </si>
-  <si>
     <t>read_schema_from_file</t>
-  </si>
-  <si>
-    <t>MONO.TbBuilding</t>
-  </si>
-  <si>
-    <t>Building</t>
-  </si>
-  <si>
-    <t>Buildings@TbChapter.xlsx</t>
-  </si>
-  <si>
-    <t>ID+Level</t>
-  </si>
-  <si>
-    <t>MapConfig@MonopolyMap.xlsx</t>
-  </si>
-  <si>
-    <t>MapConfig</t>
-  </si>
-  <si>
-    <t>MONO.TbMapConfig</t>
-  </si>
-  <si>
-    <t>MONO.TbMapEvent</t>
-  </si>
-  <si>
-    <t>MapEvent</t>
-  </si>
-  <si>
-    <t>MapEvent@MonopolyMap.xlsx</t>
   </si>
 </sst>
 </file>
@@ -658,7 +619,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -689,7 +650,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -902,72 +863,29 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1">
-      <c r="B11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1">
-      <c r="B12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1">
-      <c r="B13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="B14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1">
@@ -1135,13 +1053,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" topLeftCell="A16">
-      <selection activeCell="E42" sqref="E42"/>
+    <customSheetView guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}">
-      <selection activeCell="G10" sqref="G10"/>
+    <customSheetView guid="{C05F3069-328B-4A50-B65B-B559784493CA}" topLeftCell="A16">
+      <selection activeCell="G39" sqref="G39"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -1150,13 +1068,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{C05F3069-328B-4A50-B65B-B559784493CA}" topLeftCell="A16">
-      <selection activeCell="G39" sqref="G39"/>
+    <customSheetView guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}">
+      <selection activeCell="G10" sqref="G10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
-    <customSheetView guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" topLeftCell="A16">
+      <selection activeCell="E42" sqref="E42"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>
@@ -1169,12 +1087,8 @@
     <hyperlink ref="E5" r:id="rId9" display="Language@" xr:uid="{40C75D90-311C-412D-A26C-F16779DEAB91}"/>
     <hyperlink ref="E4" r:id="rId10" xr:uid="{EE9DE100-4B25-4107-94B4-DB9CA82630BF}"/>
     <hyperlink ref="E7" r:id="rId11" xr:uid="{5DDCF3C7-FDDB-4DDA-AC8E-5D9CBCF69C47}"/>
-    <hyperlink ref="E11" r:id="rId12" xr:uid="{983B365B-BAB9-4F6F-9D1D-DDB6C3725F0A}"/>
-    <hyperlink ref="E12" r:id="rId13" xr:uid="{D9CD1F1D-565A-4DD7-9843-A46CF71D3FCC}"/>
-    <hyperlink ref="E13" r:id="rId14" xr:uid="{8BA61C71-B652-48CA-881D-DBE119145F8C}"/>
-    <hyperlink ref="E14" r:id="rId15" xr:uid="{3A7E5245-68F0-44C6-B4BA-D65D5604E1FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/Datas/Defines/__tables__.xlsx
+++ b/Datas/Defines/__tables__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\Defines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\301410195\Desktop\SunHeSLGConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F78835-896B-459B-89D2-783C21033002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E9B2F4-18C3-44F3-8ED4-6E03265C3480}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,30 +17,17 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="李翔 - 个人视图" guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="420" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="王树湃 - 个人视图" guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="相钰 - 个人视图" guid="{FD691EE8-6D2E-49AD-93D9-3F01820A4257}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="施逸诗 - 个人视图" guid="{C05F3069-328B-4A50-B65B-B559784493CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
     <customWorkbookView name="Claymore - Personal View" guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
-    <customWorkbookView name="施逸诗 - 个人视图" guid="{C05F3069-328B-4A50-B65B-B559784493CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="相钰 - 个人视图" guid="{FD691EE8-6D2E-49AD-93D9-3F01820A4257}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="王树湃 - 个人视图" guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="李翔 - 个人视图" guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="420" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>##var</t>
   </si>
@@ -215,6 +202,15 @@
   </si>
   <si>
     <t>read_schema_from_file</t>
+  </si>
+  <si>
+    <t>SLG.TbPawn</t>
+  </si>
+  <si>
+    <t>PawnData</t>
+  </si>
+  <si>
+    <t>Pawns.xlsx</t>
   </si>
 </sst>
 </file>
@@ -619,7 +615,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -863,10 +859,21 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1">
       <c r="B12" s="1"/>
@@ -1053,13 +1060,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" topLeftCell="A16">
+      <selection activeCell="E42" sqref="E42"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{C05F3069-328B-4A50-B65B-B559784493CA}" topLeftCell="A16">
-      <selection activeCell="G39" sqref="G39"/>
+    <customSheetView guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}">
+      <selection activeCell="G10" sqref="G10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -1068,13 +1075,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}">
-      <selection activeCell="G10" sqref="G10"/>
+    <customSheetView guid="{C05F3069-328B-4A50-B65B-B559784493CA}" topLeftCell="A16">
+      <selection activeCell="G39" sqref="G39"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
-    <customSheetView guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" topLeftCell="A16">
-      <selection activeCell="E42" sqref="E42"/>
+    <customSheetView guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>

--- a/Datas/Defines/__tables__.xlsx
+++ b/Datas/Defines/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\301410195\Desktop\SunHeSLGConfigs\Datas\Defines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E9B2F4-18C3-44F3-8ED4-6E03265C3480}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DB62B0-813A-4DEC-AFF7-B50D25BA8FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-2760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>##var</t>
   </si>
@@ -171,9 +171,6 @@
     <t>ItemData</t>
   </si>
   <si>
-    <t>arts@Items.xlsx,sword@items.xlsx,item@items.xlsx,lance@items.xlsx,axe@items.xlsx,bow@items.xlsx,dagger@items.xlsx,tome@items.xlsx,staff@items.xlsx,special@items.xlsx</t>
-  </si>
-  <si>
     <t>SLG.Class</t>
   </si>
   <si>
@@ -210,7 +207,19 @@
     <t>PawnData</t>
   </si>
   <si>
+    <t>AttrData</t>
+  </si>
+  <si>
+    <t>SLG.TbAttr</t>
+  </si>
+  <si>
+    <t>Attribute.xlsx</t>
+  </si>
+  <si>
     <t>Pawns.xlsx</t>
+  </si>
+  <si>
+    <t>items.xlsx</t>
   </si>
 </sst>
 </file>
@@ -615,7 +624,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -646,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -801,7 +810,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>41</v>
@@ -809,16 +818,16 @@
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1">
       <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D8" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>41</v>
@@ -826,16 +835,16 @@
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1">
       <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="D9" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>41</v>
@@ -843,16 +852,16 @@
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1">
       <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D10" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>41</v>
@@ -860,26 +869,37 @@
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1">
       <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D11" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1">
       <c r="B13" s="1"/>
@@ -1093,9 +1113,11 @@
     <hyperlink ref="E37" r:id="rId8" display="规则@m麻将规则.xlsx" xr:uid="{A43961F5-5F04-456C-ADD0-E08180BBFD4E}"/>
     <hyperlink ref="E5" r:id="rId9" display="Language@" xr:uid="{40C75D90-311C-412D-A26C-F16779DEAB91}"/>
     <hyperlink ref="E4" r:id="rId10" xr:uid="{EE9DE100-4B25-4107-94B4-DB9CA82630BF}"/>
-    <hyperlink ref="E7" r:id="rId11" xr:uid="{5DDCF3C7-FDDB-4DDA-AC8E-5D9CBCF69C47}"/>
+    <hyperlink ref="E7" r:id="rId11" display="arts@Items.xlsx,sword@items.xlsx,item@items.xlsx,lance@items.xlsx,axe@items.xlsx,bow@items.xlsx,dagger@items.xlsx,tome@items.xlsx,staff@items.xlsx,special@items.xlsx" xr:uid="{5DDCF3C7-FDDB-4DDA-AC8E-5D9CBCF69C47}"/>
+    <hyperlink ref="E11" r:id="rId12" display="Pawns.xlsx@Pawn.xlsx" xr:uid="{89854163-6479-4FE6-84F5-2EF5855A387C}"/>
+    <hyperlink ref="E12" r:id="rId13" display="Attribute.xlsx@Pawns.xlsx" xr:uid="{2CF2C693-66BE-42A2-AEBF-7C1A432B68A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/Datas/Defines/__tables__.xlsx
+++ b/Datas/Defines/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DB62B0-813A-4DEC-AFF7-B50D25BA8FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D58D98-104D-493D-8E80-76FCE9C9D1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-2760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,11 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Claymore - Personal View" guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
+    <customWorkbookView name="施逸诗 - 个人视图" guid="{C05F3069-328B-4A50-B65B-B559784493CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="相钰 - 个人视图" guid="{FD691EE8-6D2E-49AD-93D9-3F01820A4257}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="王树湃 - 个人视图" guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="李翔 - 个人视图" guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="420" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="王树湃 - 个人视图" guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="相钰 - 个人视图" guid="{FD691EE8-6D2E-49AD-93D9-3F01820A4257}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="施逸诗 - 个人视图" guid="{C05F3069-328B-4A50-B65B-B559784493CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="Claymore - Personal View" guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -195,9 +195,6 @@
     <t>SkillData</t>
   </si>
   <si>
-    <t>Skills.xlsx</t>
-  </si>
-  <si>
     <t>read_schema_from_file</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>items.xlsx</t>
+  </si>
+  <si>
+    <t>Skill@Skills.xlsx</t>
   </si>
 </sst>
 </file>
@@ -624,7 +624,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -655,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -810,7 +810,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>41</v>
@@ -860,8 +860,8 @@
       <c r="D10" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>52</v>
+      <c r="E10" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>41</v>
@@ -869,16 +869,16 @@
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1">
       <c r="B11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D11" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>41</v>
@@ -886,16 +886,16 @@
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1">
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>41</v>
@@ -1080,13 +1080,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" topLeftCell="A16">
-      <selection activeCell="E42" sqref="E42"/>
+    <customSheetView guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}">
-      <selection activeCell="G10" sqref="G10"/>
+    <customSheetView guid="{C05F3069-328B-4A50-B65B-B559784493CA}" topLeftCell="A16">
+      <selection activeCell="G39" sqref="G39"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -1095,13 +1095,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{C05F3069-328B-4A50-B65B-B559784493CA}" topLeftCell="A16">
-      <selection activeCell="G39" sqref="G39"/>
+    <customSheetView guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}">
+      <selection activeCell="G10" sqref="G10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
-    <customSheetView guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" topLeftCell="A16">
+      <selection activeCell="E42" sqref="E42"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>
@@ -1116,8 +1116,9 @@
     <hyperlink ref="E7" r:id="rId11" display="arts@Items.xlsx,sword@items.xlsx,item@items.xlsx,lance@items.xlsx,axe@items.xlsx,bow@items.xlsx,dagger@items.xlsx,tome@items.xlsx,staff@items.xlsx,special@items.xlsx" xr:uid="{5DDCF3C7-FDDB-4DDA-AC8E-5D9CBCF69C47}"/>
     <hyperlink ref="E11" r:id="rId12" display="Pawns.xlsx@Pawn.xlsx" xr:uid="{89854163-6479-4FE6-84F5-2EF5855A387C}"/>
     <hyperlink ref="E12" r:id="rId13" display="Attribute.xlsx@Pawns.xlsx" xr:uid="{2CF2C693-66BE-42A2-AEBF-7C1A432B68A2}"/>
+    <hyperlink ref="E10" r:id="rId14" xr:uid="{111A7570-B64B-43BB-87A8-D6DF155165AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/Datas/Defines/__tables__.xlsx
+++ b/Datas/Defines/__tables__.xlsx
@@ -8,26 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D58D98-104D-493D-8E80-76FCE9C9D1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DD0FAF-87EA-4D94-9439-A3241C5F9E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-2760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26655" yWindow="-975" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="李翔 - 个人视图" guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="420" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="王树湃 - 个人视图" guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="相钰 - 个人视图" guid="{FD691EE8-6D2E-49AD-93D9-3F01820A4257}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="施逸诗 - 个人视图" guid="{C05F3069-328B-4A50-B65B-B559784493CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
     <customWorkbookView name="Claymore - Personal View" guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
-    <customWorkbookView name="施逸诗 - 个人视图" guid="{C05F3069-328B-4A50-B65B-B559784493CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="相钰 - 个人视图" guid="{FD691EE8-6D2E-49AD-93D9-3F01820A4257}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="王树湃 - 个人视图" guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="李翔 - 个人视图" guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="420" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>##var</t>
   </si>
@@ -220,6 +220,15 @@
   </si>
   <si>
     <t>Skill@Skills.xlsx</t>
+  </si>
+  <si>
+    <t>SLG.TbDialogue</t>
+  </si>
+  <si>
+    <t>DialogueData</t>
+  </si>
+  <si>
+    <t>Dialogue@Dialogue.xlsx</t>
   </si>
 </sst>
 </file>
@@ -624,7 +633,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -902,10 +911,21 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="B14" s="1"/>
@@ -1080,13 +1100,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" topLeftCell="A16">
+      <selection activeCell="E42" sqref="E42"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{C05F3069-328B-4A50-B65B-B559784493CA}" topLeftCell="A16">
-      <selection activeCell="G39" sqref="G39"/>
+    <customSheetView guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}">
+      <selection activeCell="G10" sqref="G10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -1095,13 +1115,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}">
-      <selection activeCell="G10" sqref="G10"/>
+    <customSheetView guid="{C05F3069-328B-4A50-B65B-B559784493CA}" topLeftCell="A16">
+      <selection activeCell="G39" sqref="G39"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
-    <customSheetView guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" topLeftCell="A16">
-      <selection activeCell="E42" sqref="E42"/>
+    <customSheetView guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>
@@ -1117,8 +1137,9 @@
     <hyperlink ref="E11" r:id="rId12" display="Pawns.xlsx@Pawn.xlsx" xr:uid="{89854163-6479-4FE6-84F5-2EF5855A387C}"/>
     <hyperlink ref="E12" r:id="rId13" display="Attribute.xlsx@Pawns.xlsx" xr:uid="{2CF2C693-66BE-42A2-AEBF-7C1A432B68A2}"/>
     <hyperlink ref="E10" r:id="rId14" xr:uid="{111A7570-B64B-43BB-87A8-D6DF155165AD}"/>
+    <hyperlink ref="E13" r:id="rId15" xr:uid="{48E08C28-1929-46B0-B3A9-1CF41E959111}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/Datas/Defines/__tables__.xlsx
+++ b/Datas/Defines/__tables__.xlsx
@@ -8,26 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DD0FAF-87EA-4D94-9439-A3241C5F9E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAABABB-9D58-4D09-8DA6-DEA025C1A1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26655" yWindow="-975" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Claymore - Personal View" guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
+    <customWorkbookView name="施逸诗 - 个人视图" guid="{C05F3069-328B-4A50-B65B-B559784493CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="相钰 - 个人视图" guid="{FD691EE8-6D2E-49AD-93D9-3F01820A4257}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="王树湃 - 个人视图" guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="李翔 - 个人视图" guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="420" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="王树湃 - 个人视图" guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="相钰 - 个人视图" guid="{FD691EE8-6D2E-49AD-93D9-3F01820A4257}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="施逸诗 - 个人视图" guid="{C05F3069-328B-4A50-B65B-B559784493CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="Claymore - Personal View" guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>##var</t>
   </si>
@@ -229,6 +229,15 @@
   </si>
   <si>
     <t>Dialogue@Dialogue.xlsx</t>
+  </si>
+  <si>
+    <t>SLG.TbQuest</t>
+  </si>
+  <si>
+    <t>QuestData</t>
+  </si>
+  <si>
+    <t>Quest.xlsx</t>
   </si>
 </sst>
 </file>
@@ -633,24 +642,24 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="37.140625" customWidth="1"/>
-    <col min="8" max="8" width="57.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.109375" customWidth="1"/>
+    <col min="8" max="8" width="57.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -928,11 +937,21 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1">
@@ -1100,13 +1119,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" topLeftCell="A16">
-      <selection activeCell="E42" sqref="E42"/>
+    <customSheetView guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}">
-      <selection activeCell="G10" sqref="G10"/>
+    <customSheetView guid="{C05F3069-328B-4A50-B65B-B559784493CA}" topLeftCell="A16">
+      <selection activeCell="G39" sqref="G39"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -1115,13 +1134,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{C05F3069-328B-4A50-B65B-B559784493CA}" topLeftCell="A16">
-      <selection activeCell="G39" sqref="G39"/>
+    <customSheetView guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}">
+      <selection activeCell="G10" sqref="G10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
-    <customSheetView guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" topLeftCell="A16">
+      <selection activeCell="E42" sqref="E42"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>

--- a/Datas/Defines/__tables__.xlsx
+++ b/Datas/Defines/__tables__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAABABB-9D58-4D09-8DA6-DEA025C1A1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4F9C97-DD4E-49C5-8705-0D116EC5DFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,17 +17,17 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="李翔 - 个人视图" guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="420" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="王树湃 - 个人视图" guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="相钰 - 个人视图" guid="{FD691EE8-6D2E-49AD-93D9-3F01820A4257}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="施逸诗 - 个人视图" guid="{C05F3069-328B-4A50-B65B-B559784493CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
     <customWorkbookView name="Claymore - Personal View" guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
-    <customWorkbookView name="施逸诗 - 个人视图" guid="{C05F3069-328B-4A50-B65B-B559784493CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="相钰 - 个人视图" guid="{FD691EE8-6D2E-49AD-93D9-3F01820A4257}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="王树湃 - 个人视图" guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="李翔 - 个人视图" guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="420" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
   <si>
     <t>##var</t>
   </si>
@@ -238,6 +238,15 @@
   </si>
   <si>
     <t>Quest.xlsx</t>
+  </si>
+  <si>
+    <t>SLG.TbAchi</t>
+  </si>
+  <si>
+    <t>AchiData</t>
+  </si>
+  <si>
+    <t>Achievement.xlsx</t>
   </si>
 </sst>
 </file>
@@ -642,7 +651,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -955,8 +964,21 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1">
-      <c r="D15"/>
-      <c r="E15"/>
+      <c r="B15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
       <c r="B16" s="2"/>
@@ -1119,13 +1141,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" topLeftCell="A16">
+      <selection activeCell="E42" sqref="E42"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{C05F3069-328B-4A50-B65B-B559784493CA}" topLeftCell="A16">
-      <selection activeCell="G39" sqref="G39"/>
+    <customSheetView guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}">
+      <selection activeCell="G10" sqref="G10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -1134,13 +1156,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}">
-      <selection activeCell="G10" sqref="G10"/>
+    <customSheetView guid="{C05F3069-328B-4A50-B65B-B559784493CA}" topLeftCell="A16">
+      <selection activeCell="G39" sqref="G39"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
-    <customSheetView guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" topLeftCell="A16">
-      <selection activeCell="E42" sqref="E42"/>
+    <customSheetView guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>

--- a/Datas/Defines/__tables__.xlsx
+++ b/Datas/Defines/__tables__.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4F9C97-DD4E-49C5-8705-0D116EC5DFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50642EA6-2309-4BB8-BD05-A4CFC4DDC962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Claymore - Personal View" guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
+    <customWorkbookView name="施逸诗 - 个人视图" guid="{C05F3069-328B-4A50-B65B-B559784493CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="相钰 - 个人视图" guid="{FD691EE8-6D2E-49AD-93D9-3F01820A4257}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="王树湃 - 个人视图" guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="李翔 - 个人视图" guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="420" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="王树湃 - 个人视图" guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="相钰 - 个人视图" guid="{FD691EE8-6D2E-49AD-93D9-3F01820A4257}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="施逸诗 - 个人视图" guid="{C05F3069-328B-4A50-B65B-B559784493CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="Claymore - Personal View" guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>##var</t>
   </si>
@@ -247,6 +247,15 @@
   </si>
   <si>
     <t>Achievement.xlsx</t>
+  </si>
+  <si>
+    <t>SLG.TbBuilding</t>
+  </si>
+  <si>
+    <t>BuildingData</t>
+  </si>
+  <si>
+    <t>Building@Building.xlsx</t>
   </si>
 </sst>
 </file>
@@ -651,24 +660,24 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" customWidth="1"/>
-    <col min="5" max="5" width="46.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="37.109375" customWidth="1"/>
-    <col min="8" max="8" width="57.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" customWidth="1"/>
+    <col min="8" max="8" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -981,9 +990,21 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="B16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="2:8">
@@ -1141,13 +1162,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" topLeftCell="A16">
-      <selection activeCell="E42" sqref="E42"/>
+    <customSheetView guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}">
-      <selection activeCell="G10" sqref="G10"/>
+    <customSheetView guid="{C05F3069-328B-4A50-B65B-B559784493CA}" topLeftCell="A16">
+      <selection activeCell="G39" sqref="G39"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -1156,13 +1177,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{C05F3069-328B-4A50-B65B-B559784493CA}" topLeftCell="A16">
-      <selection activeCell="G39" sqref="G39"/>
+    <customSheetView guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}">
+      <selection activeCell="G10" sqref="G10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
-    <customSheetView guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" topLeftCell="A16">
+      <selection activeCell="E42" sqref="E42"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>
@@ -1179,8 +1200,9 @@
     <hyperlink ref="E12" r:id="rId13" display="Attribute.xlsx@Pawns.xlsx" xr:uid="{2CF2C693-66BE-42A2-AEBF-7C1A432B68A2}"/>
     <hyperlink ref="E10" r:id="rId14" xr:uid="{111A7570-B64B-43BB-87A8-D6DF155165AD}"/>
     <hyperlink ref="E13" r:id="rId15" xr:uid="{48E08C28-1929-46B0-B3A9-1CF41E959111}"/>
+    <hyperlink ref="E16" r:id="rId16" xr:uid="{E2F1EBAC-0D5B-4250-AA9E-C6482F26A672}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/Datas/Defines/__tables__.xlsx
+++ b/Datas/Defines/__tables__.xlsx
@@ -8,26 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50642EA6-2309-4BB8-BD05-A4CFC4DDC962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81AA4A2-25CA-4353-8705-1F28C27296F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="李翔 - 个人视图" guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="420" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="王树湃 - 个人视图" guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="相钰 - 个人视图" guid="{FD691EE8-6D2E-49AD-93D9-3F01820A4257}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="施逸诗 - 个人视图" guid="{C05F3069-328B-4A50-B65B-B559784493CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
     <customWorkbookView name="Claymore - Personal View" guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
-    <customWorkbookView name="施逸诗 - 个人视图" guid="{C05F3069-328B-4A50-B65B-B559784493CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="相钰 - 个人视图" guid="{FD691EE8-6D2E-49AD-93D9-3F01820A4257}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="王树湃 - 个人视图" guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="李翔 - 个人视图" guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="420" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
   <si>
     <t>##var</t>
   </si>
@@ -256,6 +256,24 @@
   </si>
   <si>
     <t>Building@Building.xlsx</t>
+  </si>
+  <si>
+    <t>MONO.TbMapConfig</t>
+  </si>
+  <si>
+    <t>MapConfig</t>
+  </si>
+  <si>
+    <t>MapConfig@MonopolyMap.xlsx</t>
+  </si>
+  <si>
+    <t>MONO.TbMapEvent</t>
+  </si>
+  <si>
+    <t>MapEvent</t>
+  </si>
+  <si>
+    <t>MapEvent@MonopolyMap.xlsx</t>
   </si>
 </sst>
 </file>
@@ -358,7 +376,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -378,6 +396,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -660,24 +684,24 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="37.140625" customWidth="1"/>
-    <col min="8" max="8" width="57.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.109375" customWidth="1"/>
+    <col min="8" max="8" width="57.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -1007,16 +1031,39 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+    <row r="17" spans="2:8" s="2" customFormat="1">
+      <c r="B17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="B18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="G18" s="2"/>
     </row>
     <row r="20" spans="2:8">
@@ -1162,13 +1209,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" topLeftCell="A16">
+      <selection activeCell="E42" sqref="E42"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{C05F3069-328B-4A50-B65B-B559784493CA}" topLeftCell="A16">
-      <selection activeCell="G39" sqref="G39"/>
+    <customSheetView guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}">
+      <selection activeCell="G10" sqref="G10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -1177,13 +1224,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}">
-      <selection activeCell="G10" sqref="G10"/>
+    <customSheetView guid="{C05F3069-328B-4A50-B65B-B559784493CA}" topLeftCell="A16">
+      <selection activeCell="G39" sqref="G39"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
-    <customSheetView guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" topLeftCell="A16">
-      <selection activeCell="E42" sqref="E42"/>
+    <customSheetView guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>
@@ -1201,8 +1248,10 @@
     <hyperlink ref="E10" r:id="rId14" xr:uid="{111A7570-B64B-43BB-87A8-D6DF155165AD}"/>
     <hyperlink ref="E13" r:id="rId15" xr:uid="{48E08C28-1929-46B0-B3A9-1CF41E959111}"/>
     <hyperlink ref="E16" r:id="rId16" xr:uid="{E2F1EBAC-0D5B-4250-AA9E-C6482F26A672}"/>
+    <hyperlink ref="E17" r:id="rId17" xr:uid="{F3A12288-5D60-442B-ADC5-CD6189518F13}"/>
+    <hyperlink ref="E18" r:id="rId18" xr:uid="{A5047164-56DB-4CFD-B18A-2160443ED195}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/Datas/Defines/__tables__.xlsx
+++ b/Datas/Defines/__tables__.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\Defines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\301410195\Desktop\SunHeSLGConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81AA4A2-25CA-4353-8705-1F28C27296F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C63294B-5090-4169-895F-45CC5383E50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7170" yWindow="4305" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Claymore - Personal View" guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
+    <customWorkbookView name="施逸诗 - 个人视图" guid="{C05F3069-328B-4A50-B65B-B559784493CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="相钰 - 个人视图" guid="{FD691EE8-6D2E-49AD-93D9-3F01820A4257}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="王树湃 - 个人视图" guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="李翔 - 个人视图" guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="420" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="王树湃 - 个人视图" guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="相钰 - 个人视图" guid="{FD691EE8-6D2E-49AD-93D9-3F01820A4257}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="施逸诗 - 个人视图" guid="{C05F3069-328B-4A50-B65B-B559784493CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="Claymore - Personal View" guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
   <si>
     <t>##var</t>
   </si>
@@ -274,6 +274,15 @@
   </si>
   <si>
     <t>MapEvent@MonopolyMap.xlsx</t>
+  </si>
+  <si>
+    <t>SLG.TbChapter</t>
+  </si>
+  <si>
+    <t>ChapterData</t>
+  </si>
+  <si>
+    <t>Chapters@TbChapter.xlsx</t>
   </si>
 </sst>
 </file>
@@ -684,24 +693,24 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" customWidth="1"/>
-    <col min="5" max="5" width="46.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="37.109375" customWidth="1"/>
-    <col min="8" max="8" width="57.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" customWidth="1"/>
+    <col min="8" max="8" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -1065,6 +1074,24 @@
         <v>41</v>
       </c>
       <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="2"/>
@@ -1209,13 +1236,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" topLeftCell="A16">
-      <selection activeCell="E42" sqref="E42"/>
+    <customSheetView guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}">
-      <selection activeCell="G10" sqref="G10"/>
+    <customSheetView guid="{C05F3069-328B-4A50-B65B-B559784493CA}" topLeftCell="A16">
+      <selection activeCell="G39" sqref="G39"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -1224,13 +1251,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{C05F3069-328B-4A50-B65B-B559784493CA}" topLeftCell="A16">
-      <selection activeCell="G39" sqref="G39"/>
+    <customSheetView guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}">
+      <selection activeCell="G10" sqref="G10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
-    <customSheetView guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" topLeftCell="A16">
+      <selection activeCell="E42" sqref="E42"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>
@@ -1250,8 +1277,9 @@
     <hyperlink ref="E16" r:id="rId16" xr:uid="{E2F1EBAC-0D5B-4250-AA9E-C6482F26A672}"/>
     <hyperlink ref="E17" r:id="rId17" xr:uid="{F3A12288-5D60-442B-ADC5-CD6189518F13}"/>
     <hyperlink ref="E18" r:id="rId18" xr:uid="{A5047164-56DB-4CFD-B18A-2160443ED195}"/>
+    <hyperlink ref="E19" r:id="rId19" xr:uid="{C50800EA-A37B-4C48-835F-2DBFAA43D58C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/Datas/Defines/__tables__.xlsx
+++ b/Datas/Defines/__tables__.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\301410195\Desktop\SunHeSLGConfigs\Datas\Defines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\Defines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C63294B-5090-4169-895F-45CC5383E50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF2C1C7-CB25-4568-94E0-99D3362F5C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7170" yWindow="4305" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="李翔 - 个人视图" guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="420" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="王树湃 - 个人视图" guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="相钰 - 个人视图" guid="{FD691EE8-6D2E-49AD-93D9-3F01820A4257}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="施逸诗 - 个人视图" guid="{C05F3069-328B-4A50-B65B-B559784493CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
     <customWorkbookView name="Claymore - Personal View" guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-1608" yWindow="-8" windowWidth="1616" windowHeight="868" activeSheetId="1"/>
-    <customWorkbookView name="施逸诗 - 个人视图" guid="{C05F3069-328B-4A50-B65B-B559784493CA}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="相钰 - 个人视图" guid="{FD691EE8-6D2E-49AD-93D9-3F01820A4257}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="王树湃 - 个人视图" guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="李翔 - 个人视图" guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="420" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>##var</t>
   </si>
@@ -111,58 +111,33 @@
   </si>
   <si>
     <t>为空的话自动取value_type中第一个字段,多主键联合索引为key1+key2,多主键独立索引为"key1,key2"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>mode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>one</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>取值one|map|list，为空自动为map</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ConstData</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SLG.TbConst</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLG.TbLanguage</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LanguageData</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConstValue@TbConst.xlsx</t>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Language.xlsx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConstValue@TbConst.xlsx</t>
-  </si>
-  <si>
-    <t>SLG.Character</t>
-  </si>
-  <si>
-    <t>CharacterData</t>
-  </si>
-  <si>
-    <t>TbCharacter.xlsx</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
   <si>
     <t>SLG.Item</t>
@@ -171,57 +146,12 @@
     <t>ItemData</t>
   </si>
   <si>
-    <t>SLG.Class</t>
-  </si>
-  <si>
-    <t>ClassData</t>
-  </si>
-  <si>
-    <t>Class.xlsx</t>
-  </si>
-  <si>
-    <t>SLG.TileEffect</t>
-  </si>
-  <si>
-    <t>TileEffectData</t>
-  </si>
-  <si>
-    <t>TileEffect.xlsx</t>
-  </si>
-  <si>
-    <t>SLG.Skill</t>
-  </si>
-  <si>
-    <t>SkillData</t>
-  </si>
-  <si>
     <t>read_schema_from_file</t>
   </si>
   <si>
-    <t>SLG.TbPawn</t>
-  </si>
-  <si>
-    <t>PawnData</t>
-  </si>
-  <si>
-    <t>AttrData</t>
-  </si>
-  <si>
-    <t>SLG.TbAttr</t>
-  </si>
-  <si>
-    <t>Attribute.xlsx</t>
-  </si>
-  <si>
-    <t>Pawns.xlsx</t>
-  </si>
-  <si>
     <t>items.xlsx</t>
   </si>
   <si>
-    <t>Skill@Skills.xlsx</t>
-  </si>
-  <si>
     <t>SLG.TbDialogue</t>
   </si>
   <si>
@@ -258,24 +188,6 @@
     <t>Building@Building.xlsx</t>
   </si>
   <si>
-    <t>MONO.TbMapConfig</t>
-  </si>
-  <si>
-    <t>MapConfig</t>
-  </si>
-  <si>
-    <t>MapConfig@MonopolyMap.xlsx</t>
-  </si>
-  <si>
-    <t>MONO.TbMapEvent</t>
-  </si>
-  <si>
-    <t>MapEvent</t>
-  </si>
-  <si>
-    <t>MapEvent@MonopolyMap.xlsx</t>
-  </si>
-  <si>
     <t>SLG.TbChapter</t>
   </si>
   <si>
@@ -283,32 +195,27 @@
   </si>
   <si>
     <t>Chapters@TbChapter.xlsx</t>
+  </si>
+  <si>
+    <t>SLG.Product</t>
+  </si>
+  <si>
+    <t>ProductData</t>
+  </si>
+  <si>
+    <t>Product.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -378,39 +285,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -690,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -702,10 +597,10 @@
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="37.140625" customWidth="1"/>
-    <col min="8" max="8" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
@@ -724,7 +619,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -826,7 +721,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
@@ -835,40 +730,39 @@
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1">
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1">
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>40</v>
+      <c r="E6" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6"/>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="B7" s="1" t="s">
         <v>42</v>
       </c>
@@ -879,370 +773,228 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1">
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>46</v>
+      <c r="E8" t="s">
+        <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
-        <v>49</v>
+      <c r="E9" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1">
+        <v>34</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1">
+        <v>34</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>58</v>
+      <c r="E11" t="s">
+        <v>56</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1">
-      <c r="B12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1">
-      <c r="B13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="B14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" s="2" customFormat="1">
-      <c r="B15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="B16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="2:8" s="2" customFormat="1">
-      <c r="B17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="2:8">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="2:8">
+    </row>
+    <row r="21" spans="1:8">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="2:8">
+    </row>
+    <row r="22" spans="1:8">
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="2:8">
+    </row>
+    <row r="23" spans="1:8">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="2:8">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="2:8">
+    </row>
+    <row r="25" spans="1:8">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="2:8">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="2:8">
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="2:8">
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="2:8">
+      <c r="E28" s="4"/>
+      <c r="F28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="2:8">
+      <c r="C29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="2:8">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="2:8">
+      <c r="C31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:8">
       <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:8">
+      <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
+      <c r="E34" s="2"/>
       <c r="F34" s="2"/>
+      <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:8">
+      <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="2"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}">
-      <selection activeCell="F9" sqref="F9"/>
+    <customSheetView guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" topLeftCell="A16">
+      <selection activeCell="E42" sqref="E42"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{C05F3069-328B-4A50-B65B-B559784493CA}" topLeftCell="A16">
-      <selection activeCell="G39" sqref="G39"/>
+    <customSheetView guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}">
+      <selection activeCell="G10" sqref="G10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -1251,35 +1003,29 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{6DED3B0C-C3F9-407D-BD93-7870E5F8C596}">
-      <selection activeCell="G10" sqref="G10"/>
+    <customSheetView guid="{C05F3069-328B-4A50-B65B-B559784493CA}" topLeftCell="A16">
+      <selection activeCell="G39" sqref="G39"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
-    <customSheetView guid="{85AA97A2-0E88-44FC-AA64-9A9DFD668CD7}" topLeftCell="A16">
-      <selection activeCell="E42" sqref="E42"/>
+    <customSheetView guid="{4093B011-7051-4A58-8326-8FDDEC4FEF9E}">
+      <selection activeCell="F9" sqref="F9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
     </customSheetView>
   </customSheetViews>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E20" r:id="rId6" display="手配置@s手.xlsx" xr:uid="{851E0DC9-509B-4925-9BD1-465F3E1A55E4}"/>
-    <hyperlink ref="E36" r:id="rId7" display="金币兑换@j金币兑换表.xlsx" xr:uid="{2B74DD5D-7AE5-442C-BA3C-41B321DDBDA5}"/>
-    <hyperlink ref="E37" r:id="rId8" display="规则@m麻将规则.xlsx" xr:uid="{A43961F5-5F04-456C-ADD0-E08180BBFD4E}"/>
-    <hyperlink ref="E5" r:id="rId9" display="Language@" xr:uid="{40C75D90-311C-412D-A26C-F16779DEAB91}"/>
-    <hyperlink ref="E4" r:id="rId10" xr:uid="{EE9DE100-4B25-4107-94B4-DB9CA82630BF}"/>
-    <hyperlink ref="E7" r:id="rId11" display="arts@Items.xlsx,sword@items.xlsx,item@items.xlsx,lance@items.xlsx,axe@items.xlsx,bow@items.xlsx,dagger@items.xlsx,tome@items.xlsx,staff@items.xlsx,special@items.xlsx" xr:uid="{5DDCF3C7-FDDB-4DDA-AC8E-5D9CBCF69C47}"/>
-    <hyperlink ref="E11" r:id="rId12" display="Pawns.xlsx@Pawn.xlsx" xr:uid="{89854163-6479-4FE6-84F5-2EF5855A387C}"/>
-    <hyperlink ref="E12" r:id="rId13" display="Attribute.xlsx@Pawns.xlsx" xr:uid="{2CF2C693-66BE-42A2-AEBF-7C1A432B68A2}"/>
-    <hyperlink ref="E10" r:id="rId14" xr:uid="{111A7570-B64B-43BB-87A8-D6DF155165AD}"/>
-    <hyperlink ref="E13" r:id="rId15" xr:uid="{48E08C28-1929-46B0-B3A9-1CF41E959111}"/>
-    <hyperlink ref="E16" r:id="rId16" xr:uid="{E2F1EBAC-0D5B-4250-AA9E-C6482F26A672}"/>
-    <hyperlink ref="E17" r:id="rId17" xr:uid="{F3A12288-5D60-442B-ADC5-CD6189518F13}"/>
-    <hyperlink ref="E18" r:id="rId18" xr:uid="{A5047164-56DB-4CFD-B18A-2160443ED195}"/>
-    <hyperlink ref="E19" r:id="rId19" xr:uid="{C50800EA-A37B-4C48-835F-2DBFAA43D58C}"/>
+    <hyperlink ref="E11" r:id="rId6" display="手配置@s手.xlsx" xr:uid="{851E0DC9-509B-4925-9BD1-465F3E1A55E4}"/>
+    <hyperlink ref="E27" r:id="rId7" display="金币兑换@j金币兑换表.xlsx" xr:uid="{2B74DD5D-7AE5-442C-BA3C-41B321DDBDA5}"/>
+    <hyperlink ref="E28" r:id="rId8" display="规则@m麻将规则.xlsx" xr:uid="{A43961F5-5F04-456C-ADD0-E08180BBFD4E}"/>
+    <hyperlink ref="E4" r:id="rId9" xr:uid="{EE9DE100-4B25-4107-94B4-DB9CA82630BF}"/>
+    <hyperlink ref="E5" r:id="rId10" display="arts@Items.xlsx,sword@items.xlsx,item@items.xlsx,lance@items.xlsx,axe@items.xlsx,bow@items.xlsx,dagger@items.xlsx,tome@items.xlsx,staff@items.xlsx,special@items.xlsx" xr:uid="{5DDCF3C7-FDDB-4DDA-AC8E-5D9CBCF69C47}"/>
+    <hyperlink ref="E6" r:id="rId11" xr:uid="{48E08C28-1929-46B0-B3A9-1CF41E959111}"/>
+    <hyperlink ref="E9" r:id="rId12" xr:uid="{E2F1EBAC-0D5B-4250-AA9E-C6482F26A672}"/>
+    <hyperlink ref="E10" r:id="rId13" xr:uid="{C50800EA-A37B-4C48-835F-2DBFAA43D58C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>